--- a/infosec/osint/osint_tools.xlsx
+++ b/infosec/osint/osint_tools.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="search_engines" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="web" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="dominio_mail" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="social_networks" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="context" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="maps" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="fisico" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="phone" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="bank_taxes" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="software-repos" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="links" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metadata" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="sistema_diacritico" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="web" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="dominio_mail" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="social_networks" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="context" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="maps" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="fisico" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="phone" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="bank_taxes" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="software-repos" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="links" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metadata" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="sistema_diacritico" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,85 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
-  <si>
-    <t xml:space="preserve">https://www.shodan.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://yandex.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Hacking / Dorking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/how-search-works</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.google.com/advanced_search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude words from your search: Enter - in front of a word that you want to leave out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[jaguar speed -car]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inurl:+CSCOE+/logon.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results only from the specified website address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site:tryhackme.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results that have the specified word in the URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inurl:admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results which are a particular file extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filetype:pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results that contain the specified word in the title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intitle:admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For subdomain enumeration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-site:www.tryhackme.com  site:*.tryhackme.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://support.microsoft.com/en-us/topic/advanced-search-options-b92e25f1-0085-4271-bdf9-14aaea720930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payloads:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“-----BEGIN CERTIFICATE-----” filetype:txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inanchor:”adminpanel”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site:gob.pe contains:mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inanchor:”8080/login.php”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site:mil.pe ext:pdf</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t xml:space="preserve">Wayback Machine
 The Wayback Machine (https://archive.org/web/) is a historical archive of websites that dates back to the late 90s. You can search a domain name, and it will show you all the times the service scraped the web page and saved the contents. This service can help uncover old pages that may still be active on the current website.</t>
@@ -400,7 +321,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -411,12 +332,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -440,144 +361,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:C40"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="74.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="95.47"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="2" customFormat="false" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="8" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="https://developers.google.com/search/docs/fundamentals/how-search-works"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.google.com/advanced_search"/>
-    <hyperlink ref="A32" r:id="rId3" display="https://support.microsoft.com/en-us/topic/advanced-search-options-b92e25f1-0085-4271-bdf9-14aaea720930"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -586,64 +394,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="60.61"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="iKy (kennbroorg.gitlab.io) "/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -661,68 +411,68 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="22.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>88</v>
+      <c r="A1" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -747,17 +497,17 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="28.59"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -779,43 +529,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="95.47"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="114.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -829,32 +542,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -886,134 +599,134 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="108.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="32.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
+      <c r="A48" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1036,7 +749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1051,17 +764,17 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,7 +794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1094,52 +807,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="46.3"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>67</v>
+      <c r="A25" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1162,59 +875,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="28.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
+      <c r="A7" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1227,36 +940,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="65.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="65.74"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>74</v>
+      <c r="A9" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1271,20 +984,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="60.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" display="iKy (kennbroorg.gitlab.io) "/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/infosec/osint/osint_tools.xlsx
+++ b/infosec/osint/osint_tools.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="web" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="dominio_mail" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="domain_mail_enterprise" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="social_networks" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="context" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="maps" sheetId="5" state="visible" r:id="rId6"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t xml:space="preserve">Wayback Machine
 The Wayback Machine (https://archive.org/web/) is a historical archive of websites that dates back to the late 90s. You can search a domain name, and it will show you all the times the service scraped the web page and saved the contents. This service can help uncover old pages that may still be active on the current website.</t>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://namechk.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crunchbase.com/</t>
   </si>
   <si>
     <t xml:space="preserve">TWITTER / X</t>
@@ -411,22 +414,22 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -447,7 +450,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -458,21 +461,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +510,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -529,10 +532,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -570,10 +573,16 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://haveibeenpwned.com"/>
     <hyperlink ref="A14" r:id="rId2" display="https://namechk.com"/>
+    <hyperlink ref="A17" r:id="rId3" display="https://www.crunchbase.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -592,7 +601,7 @@
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -604,125 +613,125 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,17 +773,17 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,47 +821,47 @@
   <sheetData>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -893,27 +902,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -945,17 +954,17 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -984,17 +993,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1035,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,22 +1043,22 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
